--- a/data/trans_camb/P1423-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,92</t>
+          <t>-1,58; 2,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,5</t>
+          <t>-1,83; 2,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,56</t>
+          <t>0,17; 4,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,47</t>
+          <t>-3,94; 3,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,39</t>
+          <t>-3,64; 3,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,98</t>
+          <t>-0,82; 6,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,15</t>
+          <t>-1,82; 2,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,39</t>
+          <t>-1,74; 2,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,6</t>
+          <t>0,77; 4,6</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 209,47</t>
+          <t>-52,11; 233,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,76; 183,68</t>
+          <t>-60,28; 164,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 325,77</t>
+          <t>-0,13; 323,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,21; 110,47</t>
+          <t>-58,77; 112,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,23; 100,62</t>
+          <t>-52,83; 105,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 186,42</t>
+          <t>-12,84; 194,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 92,44</t>
+          <t>-42,05; 97,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 93,18</t>
+          <t>-43,81; 86,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 187,54</t>
+          <t>13,96; 183,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,71</t>
+          <t>-1,34; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,21</t>
+          <t>-2,23; 2,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,2</t>
+          <t>1,14; 6,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,16</t>
+          <t>-3,97; 3,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,58</t>
+          <t>-4,68; 1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,17</t>
+          <t>0,69; 8,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,44</t>
+          <t>-1,71; 2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,27</t>
+          <t>-2,94; 1,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,09</t>
+          <t>1,41; 6,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 283,65</t>
+          <t>-50,29; 289,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,45; 189,88</t>
+          <t>-68,06; 169,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 497,1</t>
+          <t>18,44; 558,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,83; 75,74</t>
+          <t>-53,69; 76,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 40,82</t>
+          <t>-62,31; 39,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 201,37</t>
+          <t>5,11; 182,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 76,21</t>
+          <t>-36,51; 85,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 41,69</t>
+          <t>-56,01; 41,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,87; 202,34</t>
+          <t>27,57; 209,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,48</t>
+          <t>0,49; 5,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,76</t>
+          <t>-1,75; 2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,78</t>
+          <t>-3,77; 4,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 10,71</t>
+          <t>-2,97; 10,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 11,16</t>
+          <t>-4,12; 10,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 9,27</t>
+          <t>-4,33; 9,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,43</t>
+          <t>1,08; 6,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,95</t>
+          <t>-1,66; 3,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,55</t>
+          <t>-3,11; 4,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 229,14</t>
+          <t>6,36; 223,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 115,46</t>
+          <t>-38,8; 104,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 148,72</t>
+          <t>-68,31; 148,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 165,58</t>
+          <t>-23,27; 140,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 151,4</t>
+          <t>-29,64; 140,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 143,2</t>
+          <t>-29,49; 121,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,22; 157,48</t>
+          <t>12,7; 153,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 99,73</t>
+          <t>-26,48; 82,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,68; 94,11</t>
+          <t>-48,75; 94,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,2</t>
+          <t>0,06; 3,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,78</t>
+          <t>-1,12; 1,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,45</t>
+          <t>1,25; 4,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,83</t>
+          <t>-0,21; 6,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,22</t>
+          <t>-2,45; 3,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 4,52</t>
+          <t>-4,69; 4,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,79</t>
+          <t>0,61; 3,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,16</t>
+          <t>-0,74; 2,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,31</t>
+          <t>0,26; 4,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 130,72</t>
+          <t>-0,33; 129,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 70,48</t>
+          <t>-30,12; 72,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,43; 171,74</t>
+          <t>32,74; 182,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 87,24</t>
+          <t>-3,19; 90,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 48,81</t>
+          <t>-24,66; 50,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 62,03</t>
+          <t>-47,99; 65,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,65; 87,71</t>
+          <t>10,96; 84,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 49,48</t>
+          <t>-13,4; 48,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,7; 101,46</t>
+          <t>5,7; 92,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,21</t>
+          <t>-4,21; 1,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,93</t>
+          <t>-3,5; 2,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,09</t>
+          <t>-0,12; 6,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 9,22</t>
+          <t>2,24; 9,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,01</t>
+          <t>2,24; 9,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 9,27</t>
+          <t>0,99; 9,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,04</t>
+          <t>0,32; 5,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,75</t>
+          <t>0,11; 5,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,22</t>
+          <t>1,85; 7,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 42,33</t>
+          <t>-64,19; 41,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 66,52</t>
+          <t>-53,03; 77,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 197,46</t>
+          <t>-3,79; 225,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,56; 121,83</t>
+          <t>18,76; 128,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,96; 118,57</t>
+          <t>20,59; 140,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>8,19; 119,73</t>
+          <t>10,35; 121,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,32; 83,84</t>
+          <t>3,1; 82,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2,2; 74,18</t>
+          <t>1,23; 83,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,53; 115,4</t>
+          <t>20,6; 110,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,06</t>
+          <t>-4,16; 0,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 0,99</t>
+          <t>-3,54; 1,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 8,58</t>
+          <t>-0,34; 9,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,68</t>
+          <t>2,58; 7,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,48</t>
+          <t>1,51; 6,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,7</t>
+          <t>2,68; 7,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,75</t>
+          <t>1,76; 5,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,09</t>
+          <t>1,02; 5,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,0</t>
+          <t>2,14; 6,41</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 80,35</t>
+          <t>-100,0; 68,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-89,75; 142,55</t>
+          <t>-90,09; 120,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 574,63</t>
+          <t>-30,56; 623,51</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32,98; 121,87</t>
+          <t>29,98; 117,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,72; 101,79</t>
+          <t>17,58; 105,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>31,74; 123,5</t>
+          <t>32,23; 122,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,89; 102,9</t>
+          <t>24,26; 105,22</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,09; 93,15</t>
+          <t>14,14; 93,6</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>29,85; 126,87</t>
+          <t>28,48; 114,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,02</t>
+          <t>0,02; 1,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,97</t>
+          <t>-0,69; 1,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,68</t>
+          <t>1,03; 3,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,31</t>
+          <t>2,5; 5,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,98</t>
+          <t>1,13; 4,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,29</t>
+          <t>1,59; 5,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,34</t>
+          <t>1,55; 3,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,26</t>
+          <t>0,63; 2,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,16</t>
+          <t>1,95; 4,21</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3,42; 74,96</t>
+          <t>-0,59; 68,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 35,97</t>
+          <t>-19,96; 37,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>34,78; 134,77</t>
+          <t>31,06; 132,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>30,72; 77,45</t>
+          <t>29,7; 76,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>15,61; 57,61</t>
+          <t>13,65; 59,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>22,31; 75,35</t>
+          <t>19,89; 75,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,82; 65,67</t>
+          <t>26,94; 66,05</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>10,73; 44,72</t>
+          <t>10,98; 46,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>32,58; 83,38</t>
+          <t>33,68; 83,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1423-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
